--- a/result/problem_1/meonf/result_4.xlsx
+++ b/result/problem_1/meonf/result_4.xlsx
@@ -1025,10 +1025,10 @@
         <v>11375212</v>
       </c>
       <c r="C26" t="n">
-        <v>15774</v>
+        <v>15900</v>
       </c>
       <c r="D26" t="n">
-        <v>15864</v>
+        <v>15990</v>
       </c>
       <c r="E26" t="n">
         <v>18000</v>
@@ -1508,10 +1508,10 @@
         <v>11415533</v>
       </c>
       <c r="C47" t="n">
-        <v>15864</v>
+        <v>15990</v>
       </c>
       <c r="D47" t="n">
-        <v>15979</v>
+        <v>16105</v>
       </c>
       <c r="E47" t="n">
         <v>18000</v>
@@ -1672,13 +1672,13 @@
         <v>8949</v>
       </c>
       <c r="D54" t="n">
-        <v>9347</v>
+        <v>9257</v>
       </c>
       <c r="E54" t="n">
         <v>9000</v>
       </c>
       <c r="F54" t="n">
-        <v>347</v>
+        <v>257</v>
       </c>
       <c r="G54" t="n">
         <v>308</v>
@@ -1902,13 +1902,13 @@
         <v>15648</v>
       </c>
       <c r="D64" t="n">
-        <v>16105</v>
+        <v>15900</v>
       </c>
       <c r="E64" t="n">
         <v>13500</v>
       </c>
       <c r="F64" t="n">
-        <v>2605</v>
+        <v>2400</v>
       </c>
       <c r="G64" t="n">
         <v>252</v>
@@ -2911,10 +2911,10 @@
         <v>11485175</v>
       </c>
       <c r="C108" t="n">
-        <v>9103</v>
+        <v>9257</v>
       </c>
       <c r="D108" t="n">
-        <v>9193</v>
+        <v>9347</v>
       </c>
       <c r="E108" t="n">
         <v>11250</v>
